--- a/한동준_국민체크8906.xlsx
+++ b/한동준_국민체크8906.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0001.회계\법인카드등(적격증빙)\12월\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0001.회계\법인카드등(적격증빙)\2021년\1월\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1572EF-C662-4608-BA20-B817A5CFD15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60DC6C6-C3AC-4A3D-B6D4-09CABF051352}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="87">
   <si>
     <t>승인일</t>
   </si>
@@ -88,16 +88,16 @@
     <t>가맹점전화번호</t>
   </si>
   <si>
-    <t>2020.12.08</t>
-  </si>
-  <si>
-    <t>13:29:45</t>
+    <t>2021.01.27</t>
+  </si>
+  <si>
+    <t>23:32:12</t>
   </si>
   <si>
     <t>'00000</t>
   </si>
   <si>
-    <t>주식회사 플라이하이</t>
+    <t>주식회사 뱅크비</t>
   </si>
   <si>
     <t>4632-35**-****-8906</t>
@@ -106,10 +106,10 @@
     <t>공용</t>
   </si>
   <si>
-    <t>진궁 운중점</t>
-  </si>
-  <si>
-    <t>중식</t>
+    <t>서울택시_개인영세_</t>
+  </si>
+  <si>
+    <t>택시</t>
   </si>
   <si>
     <t>일시불</t>
@@ -124,7 +124,7 @@
     <t>IC</t>
   </si>
   <si>
-    <t>30116804</t>
+    <t>30120882</t>
   </si>
   <si>
     <t>정상</t>
@@ -133,34 +133,118 @@
     <t>일반과세자</t>
   </si>
   <si>
-    <t>000000094207471</t>
-  </si>
-  <si>
-    <t>3391801090</t>
-  </si>
-  <si>
-    <t>사대춘</t>
+    <t>000000048248412</t>
+  </si>
+  <si>
+    <t>1048183559</t>
+  </si>
+  <si>
+    <t>김태극</t>
+  </si>
+  <si>
+    <t>서울 중구 남대문로5가 (남대문로5가)</t>
+  </si>
+  <si>
+    <t>0216441188</t>
+  </si>
+  <si>
+    <t>20:12:45</t>
+  </si>
+  <si>
+    <t>(주)우아한형제들</t>
+  </si>
+  <si>
+    <t>전자상거래PG</t>
+  </si>
+  <si>
+    <t>KEY_IN</t>
+  </si>
+  <si>
+    <t>30120841</t>
+  </si>
+  <si>
+    <t>000000074178933</t>
+  </si>
+  <si>
+    <t>8158100527</t>
+  </si>
+  <si>
+    <t>황윤경</t>
+  </si>
+  <si>
+    <t>서울 마포구 아현동 6층 (아현동,크레디트센터빌딩)</t>
+  </si>
+  <si>
+    <t>0216610808</t>
+  </si>
+  <si>
+    <t>2021.01.25</t>
+  </si>
+  <si>
+    <t>18:33:23</t>
+  </si>
+  <si>
+    <t>맥도날드서판교DT점</t>
+  </si>
+  <si>
+    <t>패스트푸드점</t>
+  </si>
+  <si>
+    <t>30120607</t>
+  </si>
+  <si>
+    <t>000000081054683</t>
+  </si>
+  <si>
+    <t>5858600484</t>
+  </si>
+  <si>
+    <t>이현성</t>
+  </si>
+  <si>
+    <t>경기 성남시 분당구 운중동 1017번지</t>
+  </si>
+  <si>
+    <t>07072091595</t>
+  </si>
+  <si>
+    <t>2021.01.18</t>
+  </si>
+  <si>
+    <t>18:13:01</t>
+  </si>
+  <si>
+    <t>미소야 서판교점</t>
+  </si>
+  <si>
+    <t>한식</t>
+  </si>
+  <si>
+    <t>30119965</t>
+  </si>
+  <si>
+    <t>000000088259101</t>
+  </si>
+  <si>
+    <t>7014400387</t>
+  </si>
+  <si>
+    <t>오정훈</t>
   </si>
   <si>
     <t>경기 성남시 분당구 운중동 1층 (운중동)</t>
   </si>
   <si>
-    <t>03180168181</t>
-  </si>
-  <si>
-    <t>2020.12.07</t>
-  </si>
-  <si>
-    <t>13:26:52</t>
+    <t>0317023477</t>
+  </si>
+  <si>
+    <t>13:11:47</t>
   </si>
   <si>
     <t>모로모로</t>
   </si>
   <si>
-    <t>한식</t>
-  </si>
-  <si>
-    <t>30116644</t>
+    <t>30119906</t>
   </si>
   <si>
     <t>000000072595029</t>
@@ -178,31 +262,22 @@
     <t>03180171267</t>
   </si>
   <si>
-    <t>2020.12.03</t>
-  </si>
-  <si>
-    <t>12:40:21</t>
-  </si>
-  <si>
-    <t>낙원타코</t>
-  </si>
-  <si>
-    <t>30116182</t>
-  </si>
-  <si>
-    <t>000000086656101</t>
-  </si>
-  <si>
-    <t>2798500748</t>
-  </si>
-  <si>
-    <t>박신혜</t>
-  </si>
-  <si>
-    <t>서울 강남구 역삼1동 지하1층 (역삼동)</t>
-  </si>
-  <si>
-    <t>025661540</t>
+    <t>2021.01.06</t>
+  </si>
+  <si>
+    <t>19:23:46</t>
+  </si>
+  <si>
+    <t>30118859</t>
+  </si>
+  <si>
+    <t>2021.01.04</t>
+  </si>
+  <si>
+    <t>23:21:42</t>
+  </si>
+  <si>
+    <t>30118676</t>
   </si>
   <si>
     <r>
@@ -580,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,8 +663,8 @@
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -624,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -695,7 +770,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="1">
-        <v>8000</v>
+        <v>18700</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -736,10 +811,10 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -754,10 +829,10 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
@@ -766,16 +841,16 @@
         <v>31</v>
       </c>
       <c r="K3" s="1">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L3">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
         <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
         <v>46</v>
@@ -828,7 +903,7 @@
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
         <v>30</v>
@@ -837,10 +912,10 @@
         <v>31</v>
       </c>
       <c r="K4" s="1">
-        <v>10000</v>
+        <v>4900</v>
       </c>
       <c r="L4">
-        <v>908</v>
+        <v>445</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
@@ -849,7 +924,7 @@
         <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
         <v>35</v>
@@ -861,19 +936,303 @@
         <v>35</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1">
+        <v>11000</v>
+      </c>
+      <c r="L5">
+        <v>999</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" t="s">
+        <v>70</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7500</v>
+      </c>
+      <c r="L6">
+        <v>682</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s">
+        <v>78</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1">
+        <v>21000</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1">
+        <v>17900</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
